--- a/tarea2/Tarea2.xlsx
+++ b/tarea2/Tarea2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmx-my.sharepoint.com/personal/gvera_uv_mx/Documents/FEI/Doctorado/Clases/3 semestre/Optativa I - Tecnologías para Redes Neuronales/Tareas/Tarea2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2840" documentId="14_{5E5B86AD-3499-2548-9357-3233F9F1A8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0916BADF-D457-7B4B-8E75-119AA7C65781}"/>
+  <xr:revisionPtr revIDLastSave="2842" documentId="14_{5E5B86AD-3499-2548-9357-3233F9F1A8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F2C2AF-190B-6F4A-80C4-C9059A0686A7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20220" tabRatio="844" xr2:uid="{7680EFFB-FA70-4AC9-9287-EB48F8AB45D7}"/>
   </bookViews>
@@ -894,6 +894,8 @@
     <xf numFmtId="164" fontId="16" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -912,8 +914,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="164" fontId="16" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1309,15 +1309,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -1337,27 +1337,27 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="B4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="8"/>
       <c r="G6" s="8"/>
     </row>
@@ -1386,11 +1386,11 @@
     </row>
     <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="34" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="10"/>
@@ -1401,10 +1401,10 @@
       <c r="J10" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
@@ -4739,7 +4739,7 @@
       <c r="Q49" s="20">
         <v>47</v>
       </c>
-      <c r="R49" s="45">
+      <c r="R49" s="35">
         <f>AVERAGE(K186:K189)</f>
         <v>4.9655838901789373E-2</v>
       </c>
@@ -11625,7 +11625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC04603D-24C7-294B-AAD6-D7CAA322DA65}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
